--- a/data/trans_bre/P20B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P20B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-45,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,34%</t>
         </is>
       </c>
     </row>
@@ -673,37 +673,37 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-28,43; 51,45</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-81,57; 3,46</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-58,43; 20,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,06; 437,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 8,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 105,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,47%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,74; 8,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,02; 5,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,5; 16,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,16; 15,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,56; 81,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,42; 45,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,14; 63,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 76,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 7,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 16,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,79; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; 13,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,24; 73,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,06; 104,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,18; 66,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,32; 78,36</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,83%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,04; 23,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,66; 7,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 11,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,98; -2,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,77; 216,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,36; 39,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,63; 66,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,16; -6,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,91%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 1,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; 8,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 13,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,42; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,87; 17,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,23; 61,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,11; 76,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,48; 14,42</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,57%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 2,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 3,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; -0,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,2; -1,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 14,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,16; 15,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; -0,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,04; -4,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-45,91</t>
+          <t>-20,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,37</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-68,34%</t>
+          <t>-40,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-40,34%</t>
+          <t>-24,11%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,93; 11,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 51,45</t>
+          <t>-24,89; 8,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 3,46</t>
+          <t>-42,57; 0,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,43; 20,13</t>
+          <t>-27,95; 8,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,5; 87,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 437,98</t>
+          <t>-58,33; 45,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,3</t>
+          <t>-69,18; 2,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 105,55</t>
+          <t>-59,16; 31,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,52</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,73</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,09%</t>
+          <t>-35,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,34%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>-24,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,47%</t>
+          <t>-15,56%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 8,89</t>
+          <t>-22,99; 7,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 5,96</t>
+          <t>-15,79; 16,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 16,25</t>
+          <t>-22,79; 9,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 15,25</t>
+          <t>-19,02; 12,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 81,91</t>
+          <t>-73,24; 73,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,42; 45,5</t>
+          <t>-43,06; 104,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 63,97</t>
+          <t>-63,18; 66,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 76,85</t>
+          <t>-55,05; 77,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-22,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,37%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>-31,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-24,84%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-55,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 7,47</t>
+          <t>-13,04; 23,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 16,73</t>
+          <t>-29,66; 7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 9,37</t>
+          <t>-29,65; 11,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 13,39</t>
+          <t>-41,58; -2,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,24; 73,54</t>
+          <t>-39,77; 216,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 104,01</t>
+          <t>-65,36; 39,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 66,23</t>
+          <t>-63,63; 66,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 78,36</t>
+          <t>-77,93; -8,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,68</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,68</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>-43,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,7%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-54,83%</t>
+          <t>-25,9%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 23,43</t>
+          <t>-30,88; 1,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 7,19</t>
+          <t>-20,9; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 11,88</t>
+          <t>-20,1; 13,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,98; -2,57</t>
+          <t>-21,52; 4,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 216,12</t>
+          <t>-73,87; 17,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 39,37</t>
+          <t>-57,23; 61,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 66,36</t>
+          <t>-54,11; 76,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,16; -6,3</t>
+          <t>-52,75; 17,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-43,34%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,54%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>-30,59%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 1,79</t>
+          <t>-14,99; 2,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 8,87</t>
+          <t>-13,55; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 13,01</t>
+          <t>-18,67; -0,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 3,33</t>
+          <t>-17,91; -1,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 17,92</t>
+          <t>-47,19; 14,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 61,01</t>
+          <t>-39,16; 15,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 76,16</t>
+          <t>-46,47; -0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 14,42</t>
+          <t>-48,7; -3,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-10,48</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-23,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-17,27%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-27,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-31,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,99; 2,85</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 3,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; -0,44</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-18,2; -1,43</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-47,19; 14,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-39,16; 15,21</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-46,47; -0,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,04; -4,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P20B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 11,41</t>
+          <t>-37,19; 13,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 8,81</t>
+          <t>-25,14; 8,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 0,77</t>
+          <t>-39,83; 3,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 8,16</t>
+          <t>-28,84; 9,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 87,93</t>
+          <t>-70,78; 91,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,33; 45,29</t>
+          <t>-59,64; 40,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 2,79</t>
+          <t>-67,9; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,16; 31,72</t>
+          <t>-60,05; 34,94</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 7,47</t>
+          <t>-24,76; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 16,73</t>
+          <t>-11,56; 17,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 9,37</t>
+          <t>-22,94; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 12,94</t>
+          <t>-20,03; 12,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,24; 73,54</t>
+          <t>-76,15; 57,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 104,01</t>
+          <t>-35,5; 115,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 66,23</t>
+          <t>-62,0; 58,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,05; 77,82</t>
+          <t>-57,1; 81,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 23,43</t>
+          <t>-11,46; 24,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 7,19</t>
+          <t>-31,58; 5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 11,88</t>
+          <t>-32,23; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -2,94</t>
+          <t>-41,48; -3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 216,12</t>
+          <t>-33,96; 200,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 39,37</t>
+          <t>-66,52; 31,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 66,36</t>
+          <t>-66,66; 62,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,93; -8,22</t>
+          <t>-77,49; -6,96</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 1,79</t>
+          <t>-29,3; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 8,87</t>
+          <t>-23,23; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 13,01</t>
+          <t>-18,8; 13,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 4,0</t>
+          <t>-21,59; 5,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 17,92</t>
+          <t>-72,02; 16,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 61,01</t>
+          <t>-61,16; 37,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 76,16</t>
+          <t>-49,8; 77,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 17,5</t>
+          <t>-53,19; 20,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 2,85</t>
+          <t>-14,98; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 3,55</t>
+          <t>-13,37; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -0,44</t>
+          <t>-19,16; 0,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -1,1</t>
+          <t>-18,67; -1,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 14,05</t>
+          <t>-47,18; 10,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 15,21</t>
+          <t>-38,75; 12,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -0,52</t>
+          <t>-47,92; 0,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,7; -3,85</t>
+          <t>-49,23; -4,93</t>
         </is>
       </c>
     </row>
